--- a/5/7/3/Programa CCVP y Compra DAP en pesos 2021 - Diaria.xlsx
+++ b/5/7/3/Programa CCVP y Compra DAP en pesos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
   <si>
     <t>Serie</t>
   </si>
@@ -845,6 +845,9 @@
   </si>
   <si>
     <t>30-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1205,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D274"/>
+  <dimension ref="A1:D275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5044,6 +5047,20 @@
         <v>393</v>
       </c>
     </row>
+    <row r="275" spans="1:4">
+      <c r="A275" t="s">
+        <v>277</v>
+      </c>
+      <c r="B275">
+        <v>12836</v>
+      </c>
+      <c r="C275">
+        <v>266</v>
+      </c>
+      <c r="D275">
+        <v>393</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Programa CCVP y Compra DAP en pesos 2021 - Diaria.xlsx
+++ b/5/7/3/Programa CCVP y Compra DAP en pesos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
   <si>
     <t>Serie</t>
   </si>
@@ -848,6 +848,21 @@
   </si>
   <si>
     <t>01-10-2021</t>
+  </si>
+  <si>
+    <t>02-10-2021</t>
+  </si>
+  <si>
+    <t>03-10-2021</t>
+  </si>
+  <si>
+    <t>04-10-2021</t>
+  </si>
+  <si>
+    <t>05-10-2021</t>
+  </si>
+  <si>
+    <t>06-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1220,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D275"/>
+  <dimension ref="A1:D280"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5061,6 +5076,76 @@
         <v>393</v>
       </c>
     </row>
+    <row r="276" spans="1:4">
+      <c r="A276" t="s">
+        <v>278</v>
+      </c>
+      <c r="B276">
+        <v>12836</v>
+      </c>
+      <c r="C276">
+        <v>266</v>
+      </c>
+      <c r="D276">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" t="s">
+        <v>279</v>
+      </c>
+      <c r="B277">
+        <v>12836</v>
+      </c>
+      <c r="C277">
+        <v>266</v>
+      </c>
+      <c r="D277">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" t="s">
+        <v>280</v>
+      </c>
+      <c r="B278">
+        <v>12836</v>
+      </c>
+      <c r="C278">
+        <v>266</v>
+      </c>
+      <c r="D278">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" t="s">
+        <v>281</v>
+      </c>
+      <c r="B279">
+        <v>12836</v>
+      </c>
+      <c r="C279">
+        <v>266</v>
+      </c>
+      <c r="D279">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" t="s">
+        <v>282</v>
+      </c>
+      <c r="B280">
+        <v>12836</v>
+      </c>
+      <c r="C280">
+        <v>266</v>
+      </c>
+      <c r="D280">
+        <v>393</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Programa CCVP y Compra DAP en pesos 2021 - Diaria.xlsx
+++ b/5/7/3/Programa CCVP y Compra DAP en pesos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
   <si>
     <t>Serie</t>
   </si>
@@ -863,6 +863,9 @@
   </si>
   <si>
     <t>06-10-2021</t>
+  </si>
+  <si>
+    <t>07-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1220,7 +1223,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D280"/>
+  <dimension ref="A1:D281"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5146,6 +5149,20 @@
         <v>393</v>
       </c>
     </row>
+    <row r="281" spans="1:4">
+      <c r="A281" t="s">
+        <v>283</v>
+      </c>
+      <c r="B281">
+        <v>12836</v>
+      </c>
+      <c r="C281">
+        <v>266</v>
+      </c>
+      <c r="D281">
+        <v>393</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Programa CCVP y Compra DAP en pesos 2021 - Diaria.xlsx
+++ b/5/7/3/Programa CCVP y Compra DAP en pesos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
   <si>
     <t>Serie</t>
   </si>
@@ -866,6 +866,9 @@
   </si>
   <si>
     <t>07-10-2021</t>
+  </si>
+  <si>
+    <t>08-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1223,7 +1226,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D281"/>
+  <dimension ref="A1:D282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5163,6 +5166,20 @@
         <v>393</v>
       </c>
     </row>
+    <row r="282" spans="1:4">
+      <c r="A282" t="s">
+        <v>284</v>
+      </c>
+      <c r="B282">
+        <v>12836</v>
+      </c>
+      <c r="C282">
+        <v>266</v>
+      </c>
+      <c r="D282">
+        <v>393</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Programa CCVP y Compra DAP en pesos 2021 - Diaria.xlsx
+++ b/5/7/3/Programa CCVP y Compra DAP en pesos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
   <si>
     <t>Serie</t>
   </si>
@@ -869,6 +869,24 @@
   </si>
   <si>
     <t>08-10-2021</t>
+  </si>
+  <si>
+    <t>09-10-2021</t>
+  </si>
+  <si>
+    <t>10-10-2021</t>
+  </si>
+  <si>
+    <t>11-10-2021</t>
+  </si>
+  <si>
+    <t>12-10-2021</t>
+  </si>
+  <si>
+    <t>13-10-2021</t>
+  </si>
+  <si>
+    <t>14-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1226,7 +1244,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D282"/>
+  <dimension ref="A1:D288"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5180,6 +5198,90 @@
         <v>393</v>
       </c>
     </row>
+    <row r="283" spans="1:4">
+      <c r="A283" t="s">
+        <v>285</v>
+      </c>
+      <c r="B283">
+        <v>12836</v>
+      </c>
+      <c r="C283">
+        <v>266</v>
+      </c>
+      <c r="D283">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" t="s">
+        <v>286</v>
+      </c>
+      <c r="B284">
+        <v>12836</v>
+      </c>
+      <c r="C284">
+        <v>266</v>
+      </c>
+      <c r="D284">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" t="s">
+        <v>287</v>
+      </c>
+      <c r="B285">
+        <v>12836</v>
+      </c>
+      <c r="C285">
+        <v>266</v>
+      </c>
+      <c r="D285">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" t="s">
+        <v>288</v>
+      </c>
+      <c r="B286">
+        <v>12836</v>
+      </c>
+      <c r="C286">
+        <v>266</v>
+      </c>
+      <c r="D286">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" t="s">
+        <v>289</v>
+      </c>
+      <c r="B287">
+        <v>12836</v>
+      </c>
+      <c r="C287">
+        <v>266</v>
+      </c>
+      <c r="D287">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" t="s">
+        <v>290</v>
+      </c>
+      <c r="B288">
+        <v>12836</v>
+      </c>
+      <c r="C288">
+        <v>266</v>
+      </c>
+      <c r="D288">
+        <v>393</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Programa CCVP y Compra DAP en pesos 2021 - Diaria.xlsx
+++ b/5/7/3/Programa CCVP y Compra DAP en pesos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
   <si>
     <t>Serie</t>
   </si>
@@ -887,6 +887,48 @@
   </si>
   <si>
     <t>14-10-2021</t>
+  </si>
+  <si>
+    <t>15-10-2021</t>
+  </si>
+  <si>
+    <t>16-10-2021</t>
+  </si>
+  <si>
+    <t>17-10-2021</t>
+  </si>
+  <si>
+    <t>18-10-2021</t>
+  </si>
+  <si>
+    <t>19-10-2021</t>
+  </si>
+  <si>
+    <t>20-10-2021</t>
+  </si>
+  <si>
+    <t>21-10-2021</t>
+  </si>
+  <si>
+    <t>22-10-2021</t>
+  </si>
+  <si>
+    <t>23-10-2021</t>
+  </si>
+  <si>
+    <t>24-10-2021</t>
+  </si>
+  <si>
+    <t>25-10-2021</t>
+  </si>
+  <si>
+    <t>26-10-2021</t>
+  </si>
+  <si>
+    <t>27-10-2021</t>
+  </si>
+  <si>
+    <t>28-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1244,7 +1286,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D288"/>
+  <dimension ref="A1:D302"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5282,6 +5324,202 @@
         <v>393</v>
       </c>
     </row>
+    <row r="289" spans="1:4">
+      <c r="A289" t="s">
+        <v>291</v>
+      </c>
+      <c r="B289">
+        <v>12836</v>
+      </c>
+      <c r="C289">
+        <v>266</v>
+      </c>
+      <c r="D289">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" t="s">
+        <v>292</v>
+      </c>
+      <c r="B290">
+        <v>12836</v>
+      </c>
+      <c r="C290">
+        <v>266</v>
+      </c>
+      <c r="D290">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" t="s">
+        <v>293</v>
+      </c>
+      <c r="B291">
+        <v>12836</v>
+      </c>
+      <c r="C291">
+        <v>266</v>
+      </c>
+      <c r="D291">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" t="s">
+        <v>294</v>
+      </c>
+      <c r="B292">
+        <v>12836</v>
+      </c>
+      <c r="C292">
+        <v>266</v>
+      </c>
+      <c r="D292">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" t="s">
+        <v>295</v>
+      </c>
+      <c r="B293">
+        <v>12836</v>
+      </c>
+      <c r="C293">
+        <v>266</v>
+      </c>
+      <c r="D293">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" t="s">
+        <v>296</v>
+      </c>
+      <c r="B294">
+        <v>12836</v>
+      </c>
+      <c r="C294">
+        <v>266</v>
+      </c>
+      <c r="D294">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" t="s">
+        <v>297</v>
+      </c>
+      <c r="B295">
+        <v>12836</v>
+      </c>
+      <c r="C295">
+        <v>266</v>
+      </c>
+      <c r="D295">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" t="s">
+        <v>298</v>
+      </c>
+      <c r="B296">
+        <v>12836</v>
+      </c>
+      <c r="C296">
+        <v>266</v>
+      </c>
+      <c r="D296">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" t="s">
+        <v>299</v>
+      </c>
+      <c r="B297">
+        <v>12836</v>
+      </c>
+      <c r="C297">
+        <v>266</v>
+      </c>
+      <c r="D297">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" t="s">
+        <v>300</v>
+      </c>
+      <c r="B298">
+        <v>12836</v>
+      </c>
+      <c r="C298">
+        <v>266</v>
+      </c>
+      <c r="D298">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" t="s">
+        <v>301</v>
+      </c>
+      <c r="B299">
+        <v>12836</v>
+      </c>
+      <c r="C299">
+        <v>266</v>
+      </c>
+      <c r="D299">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" t="s">
+        <v>302</v>
+      </c>
+      <c r="B300">
+        <v>12836</v>
+      </c>
+      <c r="C300">
+        <v>266</v>
+      </c>
+      <c r="D300">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" t="s">
+        <v>303</v>
+      </c>
+      <c r="B301">
+        <v>12836</v>
+      </c>
+      <c r="C301">
+        <v>266</v>
+      </c>
+      <c r="D301">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" t="s">
+        <v>304</v>
+      </c>
+      <c r="B302">
+        <v>12836</v>
+      </c>
+      <c r="C302">
+        <v>266</v>
+      </c>
+      <c r="D302">
+        <v>393</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Programa CCVP y Compra DAP en pesos 2021 - Diaria.xlsx
+++ b/5/7/3/Programa CCVP y Compra DAP en pesos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="311">
   <si>
     <t>Serie</t>
   </si>
@@ -929,6 +929,24 @@
   </si>
   <si>
     <t>28-10-2021</t>
+  </si>
+  <si>
+    <t>29-10-2021</t>
+  </si>
+  <si>
+    <t>30-10-2021</t>
+  </si>
+  <si>
+    <t>31-10-2021</t>
+  </si>
+  <si>
+    <t>01-11-2021</t>
+  </si>
+  <si>
+    <t>02-11-2021</t>
+  </si>
+  <si>
+    <t>03-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1286,7 +1304,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D302"/>
+  <dimension ref="A1:D308"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5520,6 +5538,87 @@
         <v>393</v>
       </c>
     </row>
+    <row r="303" spans="1:4">
+      <c r="A303" t="s">
+        <v>305</v>
+      </c>
+      <c r="B303">
+        <v>12836</v>
+      </c>
+      <c r="C303">
+        <v>0</v>
+      </c>
+      <c r="D303">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" t="s">
+        <v>306</v>
+      </c>
+      <c r="B304">
+        <v>12836</v>
+      </c>
+      <c r="C304">
+        <v>0</v>
+      </c>
+      <c r="D304">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4">
+      <c r="A305" t="s">
+        <v>307</v>
+      </c>
+      <c r="B305">
+        <v>12836</v>
+      </c>
+      <c r="C305">
+        <v>0</v>
+      </c>
+      <c r="D305">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4">
+      <c r="A306" t="s">
+        <v>308</v>
+      </c>
+      <c r="B306">
+        <v>12836</v>
+      </c>
+      <c r="C306">
+        <v>0</v>
+      </c>
+      <c r="D306">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4">
+      <c r="A307" t="s">
+        <v>309</v>
+      </c>
+      <c r="B307">
+        <v>12836</v>
+      </c>
+      <c r="C307">
+        <v>0</v>
+      </c>
+      <c r="D307">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4">
+      <c r="A308" t="s">
+        <v>310</v>
+      </c>
+      <c r="B308">
+        <v>12836</v>
+      </c>
+      <c r="C308">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Programa CCVP y Compra DAP en pesos 2021 - Diaria.xlsx
+++ b/5/7/3/Programa CCVP y Compra DAP en pesos 2021 - Diaria.xlsx
@@ -5618,6 +5618,9 @@
       <c r="C308">
         <v>0</v>
       </c>
+      <c r="D308">
+        <v>393</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/5/7/3/Programa CCVP y Compra DAP en pesos 2021 - Diaria.xlsx
+++ b/5/7/3/Programa CCVP y Compra DAP en pesos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
   <si>
     <t>Serie</t>
   </si>
@@ -947,6 +947,9 @@
   </si>
   <si>
     <t>03-11-2021</t>
+  </si>
+  <si>
+    <t>04-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1304,7 +1307,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D308"/>
+  <dimension ref="A1:D309"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5622,6 +5625,20 @@
         <v>393</v>
       </c>
     </row>
+    <row r="309" spans="1:4">
+      <c r="A309" t="s">
+        <v>311</v>
+      </c>
+      <c r="B309">
+        <v>12836</v>
+      </c>
+      <c r="C309">
+        <v>0</v>
+      </c>
+      <c r="D309">
+        <v>393</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Programa CCVP y Compra DAP en pesos 2021 - Diaria.xlsx
+++ b/5/7/3/Programa CCVP y Compra DAP en pesos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
   <si>
     <t>Serie</t>
   </si>
@@ -950,6 +950,9 @@
   </si>
   <si>
     <t>04-11-2021</t>
+  </si>
+  <si>
+    <t>05-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1307,7 +1310,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D309"/>
+  <dimension ref="A1:D310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5639,6 +5642,20 @@
         <v>393</v>
       </c>
     </row>
+    <row r="310" spans="1:4">
+      <c r="A310" t="s">
+        <v>312</v>
+      </c>
+      <c r="B310">
+        <v>12836</v>
+      </c>
+      <c r="C310">
+        <v>0</v>
+      </c>
+      <c r="D310">
+        <v>393</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/7/3/Programa CCVP y Compra DAP en pesos 2021 - Diaria.xlsx
+++ b/5/7/3/Programa CCVP y Compra DAP en pesos 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="316">
   <si>
     <t>Serie</t>
   </si>
@@ -953,6 +953,15 @@
   </si>
   <si>
     <t>05-11-2021</t>
+  </si>
+  <si>
+    <t>06-11-2021</t>
+  </si>
+  <si>
+    <t>07-11-2021</t>
+  </si>
+  <si>
+    <t>08-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1310,7 +1319,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D310"/>
+  <dimension ref="A1:D313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5656,6 +5665,48 @@
         <v>393</v>
       </c>
     </row>
+    <row r="311" spans="1:4">
+      <c r="A311" t="s">
+        <v>313</v>
+      </c>
+      <c r="B311">
+        <v>12836</v>
+      </c>
+      <c r="C311">
+        <v>0</v>
+      </c>
+      <c r="D311">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4">
+      <c r="A312" t="s">
+        <v>314</v>
+      </c>
+      <c r="B312">
+        <v>12836</v>
+      </c>
+      <c r="C312">
+        <v>0</v>
+      </c>
+      <c r="D312">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4">
+      <c r="A313" t="s">
+        <v>315</v>
+      </c>
+      <c r="B313">
+        <v>12836</v>
+      </c>
+      <c r="C313">
+        <v>0</v>
+      </c>
+      <c r="D313">
+        <v>393</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
